--- a/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Slow.xlsx
+++ b/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Slow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in half symmetry/Slow convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92B69250-DD71-4432-AE2F-1FA952C7B9BC}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83FBF89-D445-449C-8AF2-82BE2B840C03}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>Experimental data</t>
   </si>
@@ -89,6 +89,12 @@
   <si>
     <t>Reported</t>
   </si>
+  <si>
+    <t>stdv</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -149,7 +155,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +492,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -511,6 +519,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -543,6 +554,9 @@
       <c r="B5">
         <v>414.93257202146998</v>
       </c>
+      <c r="C5">
+        <v>80.180000000000007</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -575,6 +589,9 @@
       <c r="B6">
         <v>328.74104593189298</v>
       </c>
+      <c r="C6">
+        <v>44.86</v>
+      </c>
       <c r="D6">
         <v>0.5</v>
       </c>
@@ -607,6 +624,9 @@
       <c r="B7">
         <v>129.52677443553199</v>
       </c>
+      <c r="C7">
+        <v>25.43</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -639,6 +659,9 @@
       <c r="B8">
         <v>48.461098954332002</v>
       </c>
+      <c r="C8">
+        <v>4.91</v>
+      </c>
       <c r="D8">
         <v>1.5</v>
       </c>
@@ -671,6 +694,9 @@
       <c r="B9">
         <v>4.6017322765137996</v>
       </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -753,6 +779,9 @@
         <v>9</v>
       </c>
       <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
       <c r="D12">
         <v>3.5</v>
       </c>
@@ -785,6 +814,9 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
       <c r="D13">
         <v>4</v>
       </c>
@@ -817,6 +849,9 @@
       <c r="B14">
         <v>517.94746792312196</v>
       </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
       <c r="D14">
         <v>4.5</v>
       </c>
@@ -849,6 +884,9 @@
       <c r="B15">
         <v>89.615050194660597</v>
       </c>
+      <c r="C15">
+        <v>13.51</v>
+      </c>
       <c r="D15">
         <v>5</v>
       </c>
@@ -881,6 +919,9 @@
       <c r="B16">
         <v>57.796928841533195</v>
       </c>
+      <c r="C16">
+        <v>11.11</v>
+      </c>
       <c r="D16">
         <v>5.5</v>
       </c>
@@ -913,6 +954,9 @@
       <c r="B17">
         <v>26.826957952797198</v>
       </c>
+      <c r="C17">
+        <v>9.11</v>
+      </c>
       <c r="D17">
         <v>6</v>
       </c>
@@ -945,6 +989,9 @@
       <c r="B18">
         <v>5.9948425031894104</v>
       </c>
+      <c r="C18">
+        <v>1.56</v>
+      </c>
       <c r="D18">
         <v>6.5</v>
       </c>
@@ -1053,6 +1100,9 @@
         <v>10</v>
       </c>
       <c r="B22" s="5"/>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
       <c r="D22">
         <v>8.5</v>
       </c>
@@ -1085,6 +1135,9 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
       <c r="D23">
         <v>9</v>
       </c>
@@ -1117,6 +1170,9 @@
       <c r="B24">
         <v>59.2</v>
       </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
       <c r="D24">
         <v>9.5</v>
       </c>
@@ -1149,6 +1205,9 @@
       <c r="B25">
         <v>4.7469999999999999</v>
       </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
       <c r="D25">
         <v>10</v>
       </c>
@@ -1181,6 +1240,9 @@
       <c r="B26">
         <v>3.5</v>
       </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
       <c r="D26">
         <v>10.5</v>
       </c>
@@ -1263,6 +1325,9 @@
         <v>11</v>
       </c>
       <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
       <c r="D29">
         <v>12</v>
       </c>
@@ -1295,6 +1360,9 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
       <c r="D30">
         <v>12.5</v>
       </c>
@@ -1327,6 +1395,9 @@
       <c r="B31">
         <v>156</v>
       </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
       <c r="D31">
         <v>13</v>
       </c>
@@ -1359,6 +1430,9 @@
       <c r="B32">
         <v>87.3333333333333</v>
       </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
       <c r="D32">
         <v>13.5</v>
       </c>
@@ -1391,6 +1465,9 @@
       <c r="B33">
         <v>30</v>
       </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
       <c r="D33">
         <v>14</v>
       </c>
@@ -1423,6 +1500,9 @@
       <c r="B34">
         <v>19.1404115825896</v>
       </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
       <c r="D34">
         <v>14.5</v>
       </c>
@@ -1455,6 +1535,9 @@
       <c r="B35">
         <v>2.4221453287196901</v>
       </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
       <c r="D35">
         <v>15</v>
       </c>
@@ -1537,6 +1620,9 @@
         <v>7</v>
       </c>
       <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
       <c r="D38">
         <v>16.5</v>
       </c>
@@ -1569,6 +1655,9 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
       <c r="D39">
         <v>17</v>
       </c>
@@ -1601,6 +1690,9 @@
       <c r="B40">
         <v>1471.7436403597401</v>
       </c>
+      <c r="C40">
+        <v>79.8</v>
+      </c>
       <c r="D40">
         <v>17.5</v>
       </c>
@@ -1633,6 +1725,9 @@
       <c r="B41">
         <v>679.46616012253696</v>
       </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
       <c r="D41">
         <v>18</v>
       </c>
@@ -1665,6 +1760,9 @@
       <c r="B42">
         <v>334.56116246598299</v>
       </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
       <c r="D42">
         <v>18.5</v>
       </c>
@@ -1697,6 +1795,9 @@
       <c r="B43">
         <v>127.31955290816499</v>
       </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
       <c r="D43">
         <v>19</v>
       </c>
@@ -1729,6 +1830,9 @@
       <c r="B44">
         <v>32.3958597771421</v>
       </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
       <c r="D44">
         <v>19.5</v>
       </c>
@@ -2852,16 +2956,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2963,31 +3067,24 @@
       <c r="E5">
         <v>856.53182823808982</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
         <v>856.53183471089415</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
         <v>856.53182823736415</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
         <v>856.5318345786909</v>
       </c>
-      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3002,31 +3099,24 @@
       <c r="E6">
         <v>855.63494201895207</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
       <c r="H6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="I6">
         <v>816.75167676262504</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
       <c r="L6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="M6">
         <v>856.4961097133662</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
       <c r="P6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="Q6">
         <v>818.83590064956184</v>
       </c>
-      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3041,31 +3131,24 @@
       <c r="E7">
         <v>849.83027825166573</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
       <c r="H7">
         <v>0.19999999999999901</v>
       </c>
       <c r="I7">
         <v>711.25569893921784</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
       <c r="L7">
         <v>0.19999999999999901</v>
       </c>
       <c r="M7">
         <v>855.1703767357061</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
       <c r="P7">
         <v>0.19999999999999901</v>
       </c>
       <c r="Q7">
         <v>719.46833565705845</v>
       </c>
-      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3080,31 +3163,24 @@
       <c r="E8">
         <v>838.35798360625085</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8">
         <v>0.3</v>
       </c>
       <c r="I8">
         <v>602.51329468814515</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
       <c r="L8">
         <v>0.3</v>
       </c>
       <c r="M8">
         <v>850.57084519427872</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
       <c r="P8">
         <v>0.3</v>
       </c>
       <c r="Q8">
         <v>616.1856571803703</v>
       </c>
-      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3119,31 +3195,24 @@
       <c r="E9">
         <v>822.66539079963536</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
       <c r="H9">
         <v>0.39999999999999902</v>
       </c>
       <c r="I9">
         <v>506.34103357410697</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
       <c r="L9">
         <v>0.39999999999999902</v>
       </c>
       <c r="M9">
         <v>842.70900955180434</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
       <c r="P9">
         <v>0.39999999999999902</v>
       </c>
       <c r="Q9">
         <v>523.3947339921001</v>
       </c>
-      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D10">
@@ -3152,31 +3221,24 @@
       <c r="E10">
         <v>804.1468214296591</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10">
         <v>0.5</v>
       </c>
       <c r="I10">
         <v>424.09190394254483</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10">
         <v>832.3782672876622</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
       <c r="P10">
         <v>0.5</v>
       </c>
       <c r="Q10">
         <v>442.69212405893057</v>
       </c>
-      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11">
@@ -3185,31 +3247,24 @@
       <c r="E11">
         <v>783.90522148813261</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
       <c r="H11">
         <v>0.6</v>
       </c>
       <c r="I11">
         <v>354.58283148906406</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
       <c r="L11">
         <v>0.6</v>
       </c>
       <c r="M11">
         <v>820.35613453322151</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
       <c r="P11">
         <v>0.6</v>
       </c>
       <c r="Q11">
         <v>373.40414971383524</v>
       </c>
-      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -3225,31 +3280,24 @@
       <c r="E12">
         <v>762.75649516461806</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
       <c r="H12">
         <v>0.7</v>
       </c>
       <c r="I12">
         <v>296.12528142725739</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
       <c r="L12">
         <v>0.7</v>
       </c>
       <c r="M12">
         <v>807.25371107585931</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
       <c r="P12">
         <v>0.7</v>
       </c>
       <c r="Q12">
         <v>314.3133267023274</v>
       </c>
-      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3264,31 +3312,24 @@
       <c r="E13">
         <v>741.21360175206303</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
       <c r="H13">
         <v>0.79999999999999905</v>
       </c>
       <c r="I13">
         <v>247.09341243323152</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
       <c r="L13">
         <v>0.79999999999999905</v>
       </c>
       <c r="M13">
         <v>793.50569275411283</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
       <c r="P13">
         <v>0.79999999999999905</v>
       </c>
       <c r="Q13">
         <v>264.14519763364933</v>
       </c>
-      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3303,31 +3344,24 @@
       <c r="E14">
         <v>719.5611142835171</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
       <c r="H14">
         <v>0.89999999999999902</v>
       </c>
       <c r="I14">
         <v>206.04490840154693</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
       <c r="L14">
         <v>0.89999999999999902</v>
       </c>
       <c r="M14">
         <v>779.3321523427494</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
       <c r="P14">
         <v>0.89999999999999902</v>
       </c>
       <c r="Q14">
         <v>221.69973216260962</v>
       </c>
-      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3342,31 +3376,24 @@
       <c r="E15">
         <v>698.04583089258915</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
         <v>171.5495816889987</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
         <v>764.92983062128258</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15">
         <v>185.73409506185129</v>
       </c>
-      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3381,33 +3408,26 @@
       <c r="E16">
         <v>676.83162570366903</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
       <c r="H16">
         <v>1.1000000000000001</v>
       </c>
       <c r="I16">
         <v>142.72823378282325</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
       <c r="L16">
         <v>1.1000000000000001</v>
       </c>
       <c r="M16">
         <v>750.43851055068853</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
       <c r="P16">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q16">
         <v>155.42193202597807</v>
       </c>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14.917127071823201</v>
       </c>
@@ -3420,33 +3440,26 @@
       <c r="E17">
         <v>656.02266296084565</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
       <c r="H17">
         <v>1.2</v>
       </c>
       <c r="I17">
         <v>118.67324473854192</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
       <c r="L17">
         <v>1.2</v>
       </c>
       <c r="M17">
         <v>735.9544051279355</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
       <c r="P17">
         <v>1.2</v>
       </c>
       <c r="Q17">
         <v>129.93869291326516</v>
       </c>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28.950276243093899</v>
       </c>
@@ -3459,132 +3472,104 @@
       <c r="E18">
         <v>635.6831314991316</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
       <c r="H18">
         <v>1.3</v>
       </c>
       <c r="I18">
         <v>98.633032045479453</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
       <c r="L18">
         <v>1.3</v>
       </c>
       <c r="M18">
         <v>721.54703926440823</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
       <c r="P18">
         <v>1.3</v>
       </c>
       <c r="Q18">
         <v>108.5590799111806</v>
       </c>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>1.4</v>
       </c>
       <c r="E19">
         <v>615.85293241279908</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
       <c r="H19">
         <v>1.4</v>
       </c>
       <c r="I19">
         <v>81.954803734426832</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
       <c r="L19">
         <v>1.4</v>
       </c>
       <c r="M19">
         <v>707.28031004603872</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
       <c r="P19">
         <v>1.4</v>
       </c>
       <c r="Q19">
         <v>90.648078804049092</v>
       </c>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>1.5</v>
       </c>
       <c r="E20">
         <v>596.55364064162438</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
       <c r="H20">
         <v>1.5</v>
       </c>
       <c r="I20">
         <v>68.085053382844734</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
       <c r="L20">
         <v>1.5</v>
       </c>
       <c r="M20">
         <v>693.15455119322417</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
       <c r="P20">
         <v>1.5</v>
       </c>
       <c r="Q20">
         <v>75.662859468849803</v>
       </c>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>1.5999999999999901</v>
       </c>
       <c r="E21">
         <v>577.78362928224374</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
       <c r="H21">
         <v>1.5999999999999901</v>
       </c>
       <c r="I21">
         <v>56.571644746163194</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
       <c r="L21">
         <v>1.5999999999999901</v>
       </c>
       <c r="M21">
         <v>679.21356095534543</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
       <c r="P21">
         <v>1.5999999999999901</v>
       </c>
       <c r="Q21">
         <v>63.154808883199806</v>
       </c>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3598,33 +3583,26 @@
       <c r="E22">
         <v>559.54756367204504</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
       <c r="H22">
         <v>1.7</v>
       </c>
       <c r="I22">
         <v>46.991806267114733</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
       <c r="L22">
         <v>1.7</v>
       </c>
       <c r="M22">
         <v>665.44625992888461</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
       <c r="P22">
         <v>1.7</v>
       </c>
       <c r="Q22">
         <v>52.710783526786066</v>
       </c>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3637,33 +3615,26 @@
       <c r="E23">
         <v>541.84117983448914</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
       <c r="H23">
         <v>1.7999999999999901</v>
       </c>
       <c r="I23">
         <v>39.041337618207947</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
       <c r="L23">
         <v>1.7999999999999901</v>
       </c>
       <c r="M23">
         <v>651.8970721987514</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
       <c r="P23">
         <v>1.7999999999999901</v>
       </c>
       <c r="Q23">
         <v>43.989181392816036</v>
       </c>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.6615953947368398</v>
       </c>
@@ -3680,33 +3651,26 @@
       <c r="E24">
         <v>524.6604626005078</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
       <c r="H24">
         <v>1.9</v>
       </c>
       <c r="I24">
         <v>32.437906073755897</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
       <c r="L24">
         <v>1.9</v>
       </c>
       <c r="M24">
         <v>638.55205113848376</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
       <c r="P24">
         <v>1.9</v>
       </c>
       <c r="Q24">
         <v>36.706813383761784</v>
       </c>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12.6817434210526</v>
       </c>
@@ -3723,33 +3687,26 @@
       <c r="E25">
         <v>508.00000404947696</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
         <v>26.951325245616491</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
       <c r="L25">
         <v>2</v>
       </c>
       <c r="M25">
         <v>625.43870588190691</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
         <v>30.627303717892019</v>
       </c>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26.926398026315699</v>
       </c>
@@ -3762,99 +3719,78 @@
       <c r="E26">
         <v>491.84509807499512</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
       <c r="H26">
         <v>2.1</v>
       </c>
       <c r="I26">
         <v>22.392317428841761</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
       <c r="L26">
         <v>2.1</v>
       </c>
       <c r="M26">
         <v>612.5478776542235</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
       <c r="P26">
         <v>2.1</v>
       </c>
       <c r="Q26">
         <v>25.55286564271961</v>
       </c>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>2.2000000000000002</v>
       </c>
       <c r="E27">
         <v>476.19237165387398</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
       <c r="H27">
         <v>2.2000000000000002</v>
       </c>
       <c r="I27">
         <v>18.60411354462952</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
       <c r="L27">
         <v>2.2000000000000002</v>
       </c>
       <c r="M27">
         <v>599.89289244821009</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
       <c r="P27">
         <v>2.2000000000000002</v>
       </c>
       <c r="Q27">
         <v>21.31796459607488</v>
       </c>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>2.2999999999999998</v>
       </c>
       <c r="E28">
         <v>461.0201011909968</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
       <c r="H28">
         <v>2.2999999999999998</v>
       </c>
       <c r="I28">
         <v>15.456504309044828</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
       <c r="L28">
         <v>2.2999999999999998</v>
       </c>
       <c r="M28">
         <v>587.46912233357386</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
       <c r="P28">
         <v>2.2999999999999998</v>
       </c>
       <c r="Q28">
         <v>17.784122629376018</v>
       </c>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>12</v>
       </c>
@@ -3868,33 +3804,26 @@
       <c r="E29">
         <v>446.32708995688</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
       <c r="H29">
         <v>2.4</v>
       </c>
       <c r="I29">
         <v>12.841256482594275</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
       <c r="L29">
         <v>2.4</v>
       </c>
       <c r="M29">
         <v>575.28048033454127</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
       <c r="P29">
         <v>2.4</v>
       </c>
       <c r="Q29">
         <v>14.835560508259444</v>
       </c>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3907,33 +3836,26 @@
       <c r="E30">
         <v>432.08806250421736</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
       <c r="H30">
         <v>2.5</v>
       </c>
       <c r="I30">
         <v>10.668395356542991</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
       <c r="L30">
         <v>2.5</v>
       </c>
       <c r="M30">
         <v>563.32536657871503</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
       <c r="P30">
         <v>2.5</v>
       </c>
       <c r="Q30">
         <v>12.375524568428641</v>
       </c>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.7431372549019502</v>
       </c>
@@ -3946,33 +3868,26 @@
       <c r="E31">
         <v>418.30342182945111</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
       <c r="H31">
         <v>2.6</v>
       </c>
       <c r="I31">
         <v>8.8631310795093885</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
       <c r="L31">
         <v>2.6</v>
       </c>
       <c r="M31">
         <v>551.59640299272507</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
       <c r="P31">
         <v>2.6</v>
       </c>
       <c r="Q31">
         <v>10.323192769895993</v>
       </c>
-      <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.9617647058823504</v>
       </c>
@@ -3985,31 +3900,24 @@
       <c r="E32">
         <v>404.9464572669396</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
       <c r="H32">
         <v>2.7</v>
       </c>
       <c r="I32">
         <v>7.3633027868866234</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
       <c r="L32">
         <v>2.7</v>
       </c>
       <c r="M32">
         <v>540.09616266366697</v>
       </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
       <c r="P32">
         <v>2.7</v>
       </c>
       <c r="Q32">
         <v>8.6110730630549313</v>
       </c>
-      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -4024,31 +3932,24 @@
       <c r="E33">
         <v>392.01182739271894</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
       <c r="H33">
         <v>2.8</v>
       </c>
       <c r="I33">
         <v>6.117251127779662</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
       <c r="L33">
         <v>2.8</v>
       </c>
       <c r="M33">
         <v>528.82464559154528</v>
       </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
       <c r="P33">
         <v>2.8</v>
       </c>
       <c r="Q33">
         <v>7.1828192247148719</v>
       </c>
-      <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4063,31 +3964,24 @@
       <c r="E34">
         <v>379.45393911410957</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
       <c r="H34">
         <v>2.9</v>
       </c>
       <c r="I34">
         <v>5.082047523162843</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
       <c r="L34">
         <v>2.9</v>
       </c>
       <c r="M34">
         <v>517.7818517763568</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
       <c r="P34">
         <v>2.9</v>
       </c>
       <c r="Q34">
         <v>5.991399589670694</v>
       </c>
-      <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4102,31 +3996,24 @@
       <c r="E35">
         <v>367.2921467513454</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
       <c r="H35">
         <v>3</v>
       </c>
       <c r="I35">
         <v>4.2220208455432511</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
         <v>506.9485697515359</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
       <c r="P35">
         <v>3</v>
       </c>
       <c r="Q35">
         <v>4.9975633875660925</v>
       </c>
-      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D36">
@@ -4135,31 +4022,24 @@
       <c r="E36">
         <v>355.52645030442193</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
       <c r="H36">
         <v>3.0999999999999899</v>
       </c>
       <c r="I36">
         <v>3.507532013243476</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
       <c r="L36">
         <v>3.0999999999999899</v>
       </c>
       <c r="M36">
         <v>496.33596842814393</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
       <c r="P36">
         <v>3.0999999999999899</v>
       </c>
       <c r="Q36">
         <v>4.1685574444585125</v>
       </c>
-      <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D37">
@@ -4168,31 +4048,24 @@
       <c r="E37">
         <v>344.13614662128987</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
       <c r="H37">
         <v>3.19999999999999</v>
       </c>
       <c r="I37">
         <v>2.9139549663650004</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
       <c r="L37">
         <v>3.19999999999999</v>
       </c>
       <c r="M37">
         <v>485.94432837939121</v>
       </c>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
       <c r="P37">
         <v>3.19999999999999</v>
       </c>
       <c r="Q37">
         <v>3.4770531945167069</v>
       </c>
-      <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -4208,8 +4081,6 @@
       <c r="E38">
         <v>333.07394387132712</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
       <c r="H38">
         <v>3.3</v>
       </c>
@@ -4220,15 +4091,12 @@
         <f>_xlfn.FORECAST.LINEAR(I35/2,H38:H39,I38:I39)-3</f>
         <v>0.37562601672762064</v>
       </c>
-      <c r="K38" s="7"/>
       <c r="L38">
         <v>3.3</v>
       </c>
       <c r="M38">
         <v>475.7736496052658</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
       <c r="P38">
         <v>3.3</v>
       </c>
@@ -4253,31 +4121,24 @@
       <c r="E39">
         <v>322.37636404318295</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
       <c r="H39">
         <v>3.4</v>
       </c>
       <c r="I39">
         <v>2.0111568975865364</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
         <v>465.79498421372631</v>
       </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
       <c r="P39">
         <v>3.4</v>
       </c>
       <c r="Q39">
         <v>2.4191259863502514</v>
       </c>
-      <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4292,31 +4153,24 @@
       <c r="E40">
         <v>312.04340713686469</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
       <c r="H40">
         <v>3.5</v>
       </c>
       <c r="I40">
         <v>1.6708147924646071</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
         <v>456.02279564361004</v>
       </c>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
       <c r="P40">
         <v>3.5</v>
       </c>
       <c r="Q40">
         <v>2.0178126320056142</v>
       </c>
-      <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -4331,31 +4185,24 @@
       <c r="E41">
         <v>302.04969608776622</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
       <c r="H41">
         <v>3.5999999999999899</v>
       </c>
       <c r="I41">
         <v>1.3880703926122486</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
       <c r="L41">
         <v>3.5999999999999899</v>
       </c>
       <c r="M41">
         <v>446.4589901797425</v>
       </c>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
       <c r="P41">
         <v>3.5999999999999899</v>
       </c>
       <c r="Q41">
         <v>1.6830723173971136</v>
       </c>
-      <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4370,31 +4217,24 @@
       <c r="E42">
         <v>292.32614091040432</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
       <c r="H42">
         <v>3.69999999999999</v>
       </c>
       <c r="I42">
         <v>1.1531764025176996</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
       <c r="L42">
         <v>3.69999999999999</v>
       </c>
       <c r="M42">
         <v>437.10356782212665</v>
       </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
       <c r="P42">
         <v>3.69999999999999</v>
       </c>
       <c r="Q42">
         <v>1.4038624041070638</v>
       </c>
-      <c r="R42" s="7"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -4409,31 +4249,24 @@
       <c r="E43">
         <v>282.92423911632517</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
       <c r="H43">
         <v>3.8</v>
       </c>
       <c r="I43">
         <v>0.95803495468867217</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
       <c r="L43">
         <v>3.8</v>
       </c>
       <c r="M43">
         <v>427.92593293794766</v>
       </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
       <c r="P43">
         <v>3.8</v>
       </c>
       <c r="Q43">
         <v>1.170971504814895</v>
       </c>
-      <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -4448,31 +4281,24 @@
       <c r="E44">
         <v>273.84399070552564</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
       <c r="H44">
         <v>3.9</v>
       </c>
       <c r="I44">
         <v>0.79591842223365039</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
       <c r="L44">
         <v>3.9</v>
       </c>
       <c r="M44">
         <v>418.93854120578322</v>
       </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
       <c r="P44">
         <v>3.9</v>
       </c>
       <c r="Q44">
         <v>0.97671606701833968</v>
       </c>
-      <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -4487,31 +4313,24 @@
       <c r="E45">
         <v>265.0665399057346</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
       <c r="H45">
         <v>4</v>
       </c>
       <c r="I45">
         <v>0.66123772601804653</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
         <v>410.14517649871743</v>
       </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
       <c r="P45">
         <v>4</v>
       </c>
       <c r="Q45">
         <v>0.81468710146633416</v>
       </c>
-      <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D46">
@@ -4520,31 +4339,24 @@
       <c r="E46">
         <v>256.53032619261882</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
       <c r="H46">
         <v>4.0999999999999996</v>
       </c>
       <c r="I46">
         <v>0.54934979975303644</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
       <c r="L46">
         <v>4.0999999999999996</v>
       </c>
       <c r="M46">
         <v>401.54583881674137</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
       <c r="P46">
         <v>4.0999999999999996</v>
       </c>
       <c r="Q46">
         <v>0.67953872563214179</v>
       </c>
-      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D47">
@@ -4553,31 +4365,24 @@
       <c r="E47">
         <v>248.27979598157941</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
       <c r="H47">
         <v>4.2</v>
       </c>
       <c r="I47">
         <v>0.45639800057598101</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
       <c r="L47">
         <v>4.2</v>
       </c>
       <c r="M47">
         <v>393.11161552973056</v>
       </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
       <c r="P47">
         <v>4.2</v>
       </c>
       <c r="Q47">
         <v>0.56681184736326373</v>
       </c>
-      <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D48">
@@ -4586,31 +4391,24 @@
       <c r="E48">
         <v>240.31494927261198</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
       <c r="H48">
         <v>4.3</v>
       </c>
       <c r="I48">
         <v>0.3791789426806797</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
       <c r="L48">
         <v>4.3</v>
       </c>
       <c r="M48">
         <v>384.8512222339404</v>
       </c>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
       <c r="P48">
         <v>4.3</v>
       </c>
       <c r="Q48">
         <v>0.47278719239176509</v>
       </c>
-      <c r="R48" s="7"/>
     </row>
     <row r="49" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D49">
@@ -4619,31 +4417,24 @@
       <c r="E49">
         <v>232.61956012493638</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
       <c r="H49">
         <v>4.4000000000000004</v>
       </c>
       <c r="I49">
         <v>0.31503229752851708</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
       <c r="L49">
         <v>4.4000000000000004</v>
       </c>
       <c r="M49">
         <v>376.7701372440348</v>
       </c>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
       <c r="P49">
         <v>4.4000000000000004</v>
       </c>
       <c r="Q49">
         <v>0.39436292685211077</v>
       </c>
-      <c r="R49" s="7"/>
     </row>
     <row r="50" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D50">
@@ -4652,31 +4443,24 @@
       <c r="E50">
         <v>225.12948352601489</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
       <c r="H50">
         <v>4.5</v>
       </c>
       <c r="I50">
         <v>0.26174698914146033</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
       <c r="L50">
         <v>4.5</v>
       </c>
       <c r="M50">
         <v>368.86836056001675</v>
       </c>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
       <c r="P50">
         <v>4.5</v>
       </c>
       <c r="Q50">
         <v>0.32895265703626742</v>
       </c>
-      <c r="R50" s="7"/>
     </row>
     <row r="51" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D51">
@@ -4685,31 +4469,24 @@
       <c r="E51">
         <v>217.8897158238459</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
       <c r="H51">
         <v>4.5999999999999996</v>
       </c>
       <c r="I51">
         <v>0.21748327662464634</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
       <c r="L51">
         <v>4.5999999999999996</v>
       </c>
       <c r="M51">
         <v>361.12020655488777</v>
       </c>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
       <c r="P51">
         <v>4.5999999999999996</v>
       </c>
       <c r="Q51">
         <v>0.27439882257215925</v>
       </c>
-      <c r="R51" s="7"/>
     </row>
     <row r="52" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D52">
@@ -4718,31 +4495,24 @@
       <c r="E52">
         <v>210.90025701842342</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
       <c r="H52">
         <v>4.7</v>
       </c>
       <c r="I52">
         <v>0.18071134674885231</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
       <c r="L52">
         <v>4.7</v>
       </c>
       <c r="M52">
         <v>353.53028844380765</v>
       </c>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
       <c r="P52">
         <v>4.7</v>
       </c>
       <c r="Q52">
         <v>0.22889956944451387</v>
       </c>
-      <c r="R52" s="7"/>
     </row>
     <row r="53" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D53">
@@ -4751,31 +4521,24 @@
       <c r="E53">
         <v>204.14886739520554</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
       <c r="H53">
         <v>4.8</v>
       </c>
       <c r="I53">
         <v>0.15016081805875595</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
       <c r="L53">
         <v>4.8</v>
       </c>
       <c r="M53">
         <v>346.10541583267343</v>
       </c>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
       <c r="P53">
         <v>4.8</v>
       </c>
       <c r="Q53">
         <v>0.19095035206248892</v>
       </c>
-      <c r="R53" s="7"/>
     </row>
     <row r="54" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D54">
@@ -4784,31 +4547,24 @@
       <c r="E54">
         <v>197.57610762222143</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
       <c r="H54">
         <v>4.9000000000000004</v>
       </c>
       <c r="I54">
         <v>0.12477721378325775</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
       <c r="L54">
         <v>4.9000000000000004</v>
       </c>
       <c r="M54">
         <v>338.84558872148955</v>
       </c>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
       <c r="P54">
         <v>4.9000000000000004</v>
       </c>
       <c r="Q54">
         <v>0.15929616096874541</v>
       </c>
-      <c r="R54" s="7"/>
     </row>
     <row r="55" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D55">
@@ -4817,31 +4573,24 @@
       <c r="E55">
         <v>191.22259301513537</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
       <c r="H55">
         <v>5</v>
       </c>
       <c r="I55">
         <v>0.10368554636037473</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
       <c r="L55">
         <v>5</v>
       </c>
       <c r="M55">
         <v>331.72879181714512</v>
       </c>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
       <c r="P55">
         <v>5</v>
       </c>
       <c r="Q55">
         <v>0.13289112284774762</v>
       </c>
-      <c r="R55" s="7"/>
     </row>
     <row r="56" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D56">
@@ -4854,30 +4603,24 @@
         <f>_xlfn.FORECAST.LINEAR(E35/2,D56:D57,E56:E57)-3</f>
         <v>2.124345996096908</v>
       </c>
-      <c r="G56" s="7"/>
       <c r="H56">
         <v>5.0999999999999996</v>
       </c>
       <c r="I56">
         <v>8.6159659570516245E-2</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
       <c r="L56">
         <v>5.0999999999999996</v>
       </c>
       <c r="M56">
         <v>324.75585060884254</v>
       </c>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
       <c r="P56">
         <v>5.0999999999999996</v>
       </c>
       <c r="Q56">
         <v>0.1108638523566486</v>
       </c>
-      <c r="R56" s="7"/>
     </row>
     <row r="57" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D57">
@@ -5475,16 +5218,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Slow.xlsx
+++ b/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Slow.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83FBF89-D445-449C-8AF2-82BE2B840C03}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4493E956-14CB-474E-9216-7F3E7E37855F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
   <sheets>
     <sheet name="Vitreous concentrations" sheetId="2" r:id="rId1"/>
     <sheet name="half-lives" sheetId="3" r:id="rId2"/>
+    <sheet name="Duration of action" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="20">
   <si>
     <t>Experimental data</t>
   </si>
@@ -95,6 +96,9 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>half-life (d)</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -155,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,14 +482,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2956,16 +2975,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2975,11 +2994,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DD368D-0B3B-4024-960C-A6EC5ACA0293}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -3034,25 +3059,36 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
       </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5218,16 +5254,2528 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A38:B38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBEB08D-3939-494F-8629-DD1FB78199F8}">
+  <dimension ref="A1:N95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60:K60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.92903225806451795</v>
+      </c>
+      <c r="B5">
+        <v>414.93257202146998</v>
+      </c>
+      <c r="C5">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>856.53182826326633</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>856.531836179018</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>856.53182823740588</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>856.53183738030964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.9419354838709699</v>
+      </c>
+      <c r="B6">
+        <v>328.74104593189298</v>
+      </c>
+      <c r="C6">
+        <v>44.86</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>804.13928733242153</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>424.01928506867131</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>832.37091210459891</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>442.62839658114382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.8967741935483797</v>
+      </c>
+      <c r="B7">
+        <v>129.52677443553199</v>
+      </c>
+      <c r="C7">
+        <v>25.43</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>698.02156232030859</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>171.49712232666843</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>764.92084322169183</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>185.69261966165041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14.967741935483801</v>
+      </c>
+      <c r="B8">
+        <v>48.461098954332002</v>
+      </c>
+      <c r="C8">
+        <v>4.91</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>596.54253663901727</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>68.215182581134002</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>693.12592152234993</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>75.795258708506111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29.109677419354799</v>
+      </c>
+      <c r="B9">
+        <v>4.6017322765137996</v>
+      </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>507.97708885152878</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>26.897696783498542</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>625.42870872241451</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>30.563329637369733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>432.03636333396287</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>10.594365711979988</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>563.31741648769219</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>12.29593685240761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>367.28968464569436</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4.1681673392535803</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>506.97281965961889</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4.9441673941399253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>3.5</v>
+      </c>
+      <c r="E12">
+        <v>312.19311284388101</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>1.6405985251962631</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12">
+        <v>456.06618111418567</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>1.9863763441370499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>265.17288272306268</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0.64593543706766754</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>410.15399821265959</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0.79828211925490622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.959595959595962</v>
+      </c>
+      <c r="B14">
+        <v>517.94746792312196</v>
+      </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>225.16712481040619</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14">
+        <v>0.25422125932627204</v>
+      </c>
+      <c r="J14">
+        <v>4.5</v>
+      </c>
+      <c r="K14">
+        <v>368.83565979902733</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>0.32091493499486784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.9797979797979801</v>
+      </c>
+      <c r="B15">
+        <v>89.615050194660597</v>
+      </c>
+      <c r="C15">
+        <v>13.51</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>191.14860963493689</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0.10012864752957965</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>331.67026751016039</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>0.12909063830981732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.9292929292929299</v>
+      </c>
+      <c r="B16">
+        <v>57.796928841533195</v>
+      </c>
+      <c r="C16">
+        <v>11.11</v>
+      </c>
+      <c r="D16">
+        <v>5.5</v>
+      </c>
+      <c r="E16">
+        <v>162.28642743417089</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <v>3.9459634821501111E-2</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <v>298.24764889672906</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>5.1907170448256094E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14.8989898989899</v>
+      </c>
+      <c r="B17">
+        <v>26.826957952797198</v>
+      </c>
+      <c r="C17">
+        <v>9.11</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>137.79086506309278</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>1.5548257626985985E-2</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>268.19304650434259</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>2.0878816175003687E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28.939393939393899</v>
+      </c>
+      <c r="B18">
+        <v>5.9948425031894104</v>
+      </c>
+      <c r="C18">
+        <v>1.56</v>
+      </c>
+      <c r="D18">
+        <v>6.5</v>
+      </c>
+      <c r="E18">
+        <v>116.99554069510616</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>6.1238042503990618E-3</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>241.16747148913822</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+      <c r="N18">
+        <v>8.4002354471913229E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>99.339487683305663</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>2.4130907254620833E-3</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>216.72664369204102</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>3.3800610589183526E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7.5</v>
+      </c>
+      <c r="E20">
+        <v>84.348203164088929</v>
+      </c>
+      <c r="G20">
+        <v>7.5</v>
+      </c>
+      <c r="H20">
+        <v>9.5108796473997604E-4</v>
+      </c>
+      <c r="J20">
+        <v>7.5</v>
+      </c>
+      <c r="K20">
+        <v>194.71650278979604</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+      <c r="N20">
+        <v>1.3591599736509424E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>71.619337066987299</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>3.7455202312867151E-4</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>174.83669386676669</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>5.4670017018626038E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>8.5</v>
+      </c>
+      <c r="E22">
+        <v>60.811410901635682</v>
+      </c>
+      <c r="G22">
+        <v>8.5</v>
+      </c>
+      <c r="H22">
+        <v>1.4757262430881212E-4</v>
+      </c>
+      <c r="J22">
+        <v>8.5</v>
+      </c>
+      <c r="K22">
+        <v>157.11392368950754</v>
+      </c>
+      <c r="M22">
+        <v>8.5</v>
+      </c>
+      <c r="N22">
+        <v>2.1995533219339386E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>51.634519981712813</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>5.8161081168309251E-5</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>141.03872310390275</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>8.8504937158538237E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>59.2</v>
+      </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
+      <c r="D24">
+        <v>9.5</v>
+      </c>
+      <c r="E24">
+        <v>43.842519618048193</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>2.2910430579897091E-5</v>
+      </c>
+      <c r="J24">
+        <v>9.5</v>
+      </c>
+      <c r="K24">
+        <v>126.72462961578063</v>
+      </c>
+      <c r="M24">
+        <v>9.5</v>
+      </c>
+      <c r="N24">
+        <v>3.5589006295976884E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>37.226413185695989</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>9.0251315437361809E-6</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>113.7274447136278</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>1.4315059110505588E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+      <c r="E26">
+        <v>31.608744267706353</v>
+      </c>
+      <c r="G26">
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <v>3.5567037594012064E-6</v>
+      </c>
+      <c r="J26">
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <v>102.17485245126133</v>
+      </c>
+      <c r="M26">
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <v>5.7594059492502336E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>26.838836656964013</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>1.4014983268777223E-6</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>91.693114424885323</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>2.3174506194440193E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>11.5</v>
+      </c>
+      <c r="E28">
+        <v>22.788753023178973</v>
+      </c>
+      <c r="G28">
+        <v>11.5</v>
+      </c>
+      <c r="H28">
+        <v>5.5199682503071796E-7</v>
+      </c>
+      <c r="J28">
+        <v>11.5</v>
+      </c>
+      <c r="K28">
+        <v>82.372897333157169</v>
+      </c>
+      <c r="M28">
+        <v>11.5</v>
+      </c>
+      <c r="N28">
+        <v>9.3188253707603168E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>19.349863360902841</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>2.1756895520066121E-7</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>73.924142196297851</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>3.7483237486387616E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <v>16.429931312176812</v>
+      </c>
+      <c r="G30">
+        <v>12.5</v>
+      </c>
+      <c r="H30">
+        <v>8.5810680240305461E-8</v>
+      </c>
+      <c r="J30">
+        <v>12.5</v>
+      </c>
+      <c r="K30">
+        <v>66.405877077468148</v>
+      </c>
+      <c r="M30">
+        <v>12.5</v>
+      </c>
+      <c r="N30">
+        <v>1.508067885239523E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.7431372549019502</v>
+      </c>
+      <c r="B31">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>13.950640097968197</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>3.3862320493192582E-8</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>59.597569151441753</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>6.0681104831020947E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6.9617647058823504</v>
+      </c>
+      <c r="B32">
+        <v>87.3333333333333</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32">
+        <v>11.845491893273218</v>
+      </c>
+      <c r="G32">
+        <v>13.5</v>
+      </c>
+      <c r="H32">
+        <v>1.3380715717858693E-8</v>
+      </c>
+      <c r="J32">
+        <v>13.5</v>
+      </c>
+      <c r="K32">
+        <v>53.532951577813883</v>
+      </c>
+      <c r="M32">
+        <v>13.5</v>
+      </c>
+      <c r="N32">
+        <v>2.4400936873456088E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13.957843137254899</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>10.05802425017775</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>5.2882809441913625E-9</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>48.047398970126373</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>9.8147909449748439E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27.9470588235294</v>
+      </c>
+      <c r="B34">
+        <v>19.1404115825896</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>14.5</v>
+      </c>
+      <c r="E34">
+        <v>8.5402956951351765</v>
+      </c>
+      <c r="G34">
+        <v>14.5</v>
+      </c>
+      <c r="H34">
+        <v>2.0893609021252576E-9</v>
+      </c>
+      <c r="J34">
+        <v>14.5</v>
+      </c>
+      <c r="K34">
+        <v>43.155191277140581</v>
+      </c>
+      <c r="M34">
+        <v>14.5</v>
+      </c>
+      <c r="N34">
+        <v>3.9487905357348292E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>41.942156862745001</v>
+      </c>
+      <c r="B35">
+        <v>2.4221453287196901</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>7.2515997760207371</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>8.2545915464773265E-10</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>38.735860543461456</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>1.5888996511575281E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>15.5</v>
+      </c>
+      <c r="E36">
+        <v>6.1573731859466045</v>
+      </c>
+      <c r="G36">
+        <v>15.5</v>
+      </c>
+      <c r="H36">
+        <v>3.263077634109269E-10</v>
+      </c>
+      <c r="J36">
+        <v>15.5</v>
+      </c>
+      <c r="K36">
+        <v>34.789182042230152</v>
+      </c>
+      <c r="M36">
+        <v>15.5</v>
+      </c>
+      <c r="N36">
+        <v>6.3892788997020112E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>5.2282687161000085</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>1.2900426681467239E-10</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>31.229133539206224</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>2.5699520645781792E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>16.5</v>
+      </c>
+      <c r="E38">
+        <v>4.4393680635450057</v>
+      </c>
+      <c r="G38">
+        <v>16.5</v>
+      </c>
+      <c r="H38">
+        <v>5.0984930306493666E-11</v>
+      </c>
+      <c r="J38">
+        <v>16.5</v>
+      </c>
+      <c r="K38">
+        <v>28.045019183478654</v>
+      </c>
+      <c r="M38">
+        <v>16.5</v>
+      </c>
+      <c r="N38">
+        <v>1.0339684979581966E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>3.7695134075803884</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>2.0148932909828545E-11</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>25.177397271105455</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>4.1604418820690568E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1471.7436403597401</v>
+      </c>
+      <c r="C40">
+        <v>79.8</v>
+      </c>
+      <c r="D40">
+        <v>17.5</v>
+      </c>
+      <c r="E40">
+        <v>3.2007399311210971</v>
+      </c>
+      <c r="G40">
+        <v>17.5</v>
+      </c>
+      <c r="H40">
+        <v>7.9608043838629679E-12</v>
+      </c>
+      <c r="J40">
+        <v>17.5</v>
+      </c>
+      <c r="K40">
+        <v>22.608314602452236</v>
+      </c>
+      <c r="M40">
+        <v>17.5</v>
+      </c>
+      <c r="N40">
+        <v>1.6730048784810582E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.84207459207458746</v>
+      </c>
+      <c r="B41">
+        <v>679.46616012253696</v>
+      </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
+      <c r="D41" s="7">
+        <v>18</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2.7177939606778327</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>3.1449372336607233E-12</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>20.298614910108654</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>6.7292862455518659E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4.9206002331002088</v>
+      </c>
+      <c r="B42">
+        <v>334.56116246598299</v>
+      </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
+      <c r="D42">
+        <v>18.5</v>
+      </c>
+      <c r="E42">
+        <v>2.3077238139829239</v>
+      </c>
+      <c r="G42">
+        <v>18.5</v>
+      </c>
+      <c r="H42">
+        <v>1.2430389823231626E-12</v>
+      </c>
+      <c r="J42">
+        <v>18.5</v>
+      </c>
+      <c r="K42">
+        <v>18.225604149859745</v>
+      </c>
+      <c r="M42">
+        <v>18.5</v>
+      </c>
+      <c r="N42">
+        <v>2.7108100030415987E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14.004953379953376</v>
+      </c>
+      <c r="B43">
+        <v>127.31955290816499</v>
+      </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>1.959532392564181</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>4.9165686286352412E-13</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>16.365415729710662</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1.0940293366667197E-12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30.129662004661999</v>
+      </c>
+      <c r="B44">
+        <v>32.3958597771421</v>
+      </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
+      <c r="D44">
+        <v>19.5</v>
+      </c>
+      <c r="E44">
+        <v>1.663882184371154</v>
+      </c>
+      <c r="G44">
+        <v>19.5</v>
+      </c>
+      <c r="H44">
+        <v>1.943833659563596E-13</v>
+      </c>
+      <c r="J44">
+        <v>19.5</v>
+      </c>
+      <c r="K44">
+        <v>14.692553311874752</v>
+      </c>
+      <c r="M44">
+        <v>19.5</v>
+      </c>
+      <c r="N44">
+        <v>4.4137420394398617E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>1.4128447513171105</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>7.6849126276996682E-14</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>13.194504783299442</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1.7811247695209616E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>20.5</v>
+      </c>
+      <c r="E46">
+        <v>1.1996879152359263</v>
+      </c>
+      <c r="G46">
+        <v>20.5</v>
+      </c>
+      <c r="H46">
+        <v>2.953718566735352E-14</v>
+      </c>
+      <c r="J46">
+        <v>20.5</v>
+      </c>
+      <c r="K46">
+        <v>11.844438649206609</v>
+      </c>
+      <c r="M46">
+        <v>20.5</v>
+      </c>
+      <c r="N46">
+        <v>7.1827455204806611E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>1.0186961332315954</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>1.1135492029480262E-14</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>10.638120407768429</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>2.7855427590739957E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>21.5</v>
+      </c>
+      <c r="E48">
+        <v>0.86501887084451412</v>
+      </c>
+      <c r="G48">
+        <v>21.5</v>
+      </c>
+      <c r="H48">
+        <v>4.2299833451712676E-15</v>
+      </c>
+      <c r="J48">
+        <v>21.5</v>
+      </c>
+      <c r="K48">
+        <v>9.5484707400883213</v>
+      </c>
+      <c r="M48">
+        <v>21.5</v>
+      </c>
+      <c r="N48">
+        <v>1.0771463780904623E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>0.73453328164349385</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>1.4052636596292322E-15</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>8.5771460568876101</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>4.1595170406329606E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>22.5</v>
+      </c>
+      <c r="E50">
+        <v>0.62373636156591483</v>
+      </c>
+      <c r="G50">
+        <v>22.5</v>
+      </c>
+      <c r="H50">
+        <v>3.6503010254588993E-16</v>
+      </c>
+      <c r="J50">
+        <v>22.5</v>
+      </c>
+      <c r="K50">
+        <v>7.6976040093945928</v>
+      </c>
+      <c r="M50">
+        <v>22.5</v>
+      </c>
+      <c r="N50">
+        <v>1.3507408866288137E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>0.52965480532347919</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>8.9632999202742463E-17</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>6.9155569888273067</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>3.624448755651532E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>23.5</v>
+      </c>
+      <c r="E52">
+        <v>0.44974380959989546</v>
+      </c>
+      <c r="G52">
+        <v>23.5</v>
+      </c>
+      <c r="H52">
+        <v>7.1635660032142393E-17</v>
+      </c>
+      <c r="J52">
+        <v>23.5</v>
+      </c>
+      <c r="K52">
+        <v>6.2055461258317921</v>
+      </c>
+      <c r="M52">
+        <v>23.5</v>
+      </c>
+      <c r="N52">
+        <v>8.0767519388718175E-17</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>0.38188579215761226</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>2.5640442920237602E-17</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <v>5.5749575878107498</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>-1.8625295911056507E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>24.5</v>
+      </c>
+      <c r="E54">
+        <v>0.32426625901701961</v>
+      </c>
+      <c r="G54">
+        <v>24.5</v>
+      </c>
+      <c r="H54">
+        <v>7.9741572339668319E-18</v>
+      </c>
+      <c r="J54">
+        <v>24.5</v>
+      </c>
+      <c r="K54">
+        <v>5.002734727881947</v>
+      </c>
+      <c r="M54">
+        <v>24.5</v>
+      </c>
+      <c r="N54">
+        <v>-4.3443939519558147E-17</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>0.27534045776323429</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>-4.8942606071930632E-18</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>4.4941802342535038</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>-4.8528779556379898E-17</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>25.5</v>
+      </c>
+      <c r="E56">
+        <v>0.23379668932894529</v>
+      </c>
+      <c r="G56">
+        <v>25.5</v>
+      </c>
+      <c r="H56">
+        <v>-1.7762678448352824E-17</v>
+      </c>
+      <c r="J56">
+        <v>25.5</v>
+      </c>
+      <c r="K56">
+        <v>4.0330940188207336</v>
+      </c>
+      <c r="M56">
+        <v>25.5</v>
+      </c>
+      <c r="N56">
+        <v>-5.3613619593201206E-17</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>0.19852115006341947</v>
+      </c>
+      <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>-2.5266845308604133E-17</v>
+      </c>
+      <c r="J57">
+        <v>26</v>
+      </c>
+      <c r="K57">
+        <v>3.622929566603712</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>-5.8698459630022513E-17</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>26.5</v>
+      </c>
+      <c r="E58">
+        <v>0.16856808028132178</v>
+      </c>
+      <c r="G58">
+        <v>26.5</v>
+      </c>
+      <c r="H58">
+        <v>-2.5281657659056876E-17</v>
+      </c>
+      <c r="J58">
+        <v>26.5</v>
+      </c>
+      <c r="K58">
+        <v>3.2514200543081406</v>
+      </c>
+      <c r="M58">
+        <v>26.5</v>
+      </c>
+      <c r="N58">
+        <v>-5.6697582263668705E-17</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>0.14313441411056002</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>-2.5296470009509475E-17</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>2.9205874962390697</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>-5.1573941905174538E-17</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>27.5</v>
+      </c>
+      <c r="E60">
+        <v>0.12153825190479554</v>
+      </c>
+      <c r="G60">
+        <v>27.5</v>
+      </c>
+      <c r="H60">
+        <v>-2.5311282359961922E-17</v>
+      </c>
+      <c r="J60" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="K60" s="7">
+        <v>2.6212728846115034</v>
+      </c>
+      <c r="M60">
+        <v>27.5</v>
+      </c>
+      <c r="N60">
+        <v>-4.6450301546680223E-17</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>0.1032005795008768</v>
+      </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>-2.5326094710414518E-17</v>
+      </c>
+      <c r="J61">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>2.3544096225701927</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>-4.1326661188186063E-17</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>28.5</v>
+      </c>
+      <c r="E62">
+        <v>8.7629745188148186E-2</v>
+      </c>
+      <c r="G62">
+        <v>28.5</v>
+      </c>
+      <c r="H62">
+        <v>-2.5340907060866814E-17</v>
+      </c>
+      <c r="J62">
+        <v>28.5</v>
+      </c>
+      <c r="K62">
+        <v>2.113277231045247</v>
+      </c>
+      <c r="M62">
+        <v>28.5</v>
+      </c>
+      <c r="N62">
+        <v>-3.6203020829691594E-17</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>7.4408278616971371E-2</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <v>-2.5355719411319262E-17</v>
+      </c>
+      <c r="J63">
+        <v>29</v>
+      </c>
+      <c r="K63">
+        <v>1.8979987342695035</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>-3.1079380471197581E-17</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>29.5</v>
+      </c>
+      <c r="E64">
+        <v>6.3181698388084323E-2</v>
+      </c>
+      <c r="G64">
+        <v>29.5</v>
+      </c>
+      <c r="H64">
+        <v>-2.400152000446559E-17</v>
+      </c>
+      <c r="J64">
+        <v>29.5</v>
+      </c>
+      <c r="K64">
+        <v>1.7037523863205017</v>
+      </c>
+      <c r="M64">
+        <v>29.5</v>
+      </c>
+      <c r="N64">
+        <v>-2.5955740112703267E-17</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>5.3649008300355551E-2</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>-2.1772503852095435E-17</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>1.5300740825821433</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>-2.2594474304515749E-17</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>30.5</v>
+      </c>
+      <c r="E66">
+        <v>4.5554627484975282E-2</v>
+      </c>
+      <c r="G66">
+        <v>30.5</v>
+      </c>
+      <c r="H66">
+        <v>-1.9543487699725277E-17</v>
+      </c>
+      <c r="J66">
+        <v>30.5</v>
+      </c>
+      <c r="K66">
+        <v>1.3736078658974085</v>
+      </c>
+      <c r="M66">
+        <v>30.5</v>
+      </c>
+      <c r="N66">
+        <v>-1.9310241318376638E-17</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>3.8681538091036527E-2</v>
+      </c>
+      <c r="G67">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>-1.7314471547355119E-17</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>1.233479549525319</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>-1.6026008332237377E-17</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>31.5</v>
+      </c>
+      <c r="E68">
+        <v>3.2845466828127431E-2</v>
+      </c>
+      <c r="G68">
+        <v>31.5</v>
+      </c>
+      <c r="H68">
+        <v>-1.5085455394984964E-17</v>
+      </c>
+      <c r="J68">
+        <v>31.5</v>
+      </c>
+      <c r="K68">
+        <v>1.1074536606264229</v>
+      </c>
+      <c r="M68">
+        <v>31.5</v>
+      </c>
+      <c r="N68">
+        <v>-1.2741775346098177E-17</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>2.7889944386205602E-2</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>-1.2856439242614806E-17</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <v>0.99438457420189019</v>
+      </c>
+      <c r="M69">
+        <v>32</v>
+      </c>
+      <c r="N69">
+        <v>-9.4575423599589477E-18</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>32.5</v>
+      </c>
+      <c r="E70">
+        <v>2.3682110285170983E-2</v>
+      </c>
+      <c r="G70">
+        <v>32.5</v>
+      </c>
+      <c r="H70">
+        <v>-1.0627423090244576E-17</v>
+      </c>
+      <c r="J70">
+        <v>32.5</v>
+      </c>
+      <c r="K70">
+        <v>0.89288343737254261</v>
+      </c>
+      <c r="M70">
+        <v>32.5</v>
+      </c>
+      <c r="N70">
+        <v>-6.173309373819747E-18</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>2.0109150688327915E-2</v>
+      </c>
+      <c r="G71">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>-8.3984069378744331E-18</v>
+      </c>
+      <c r="J71">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>0.80164019417835108</v>
+      </c>
+      <c r="M71">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>-2.8890763876804573E-18</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>33.5</v>
+      </c>
+      <c r="E72">
+        <v>1.7075273681295838E-2</v>
+      </c>
+      <c r="G72">
+        <v>33.5</v>
+      </c>
+      <c r="H72">
+        <v>-6.8530821014407945E-18</v>
+      </c>
+      <c r="J72">
+        <v>33.5</v>
+      </c>
+      <c r="K72">
+        <v>0.71989667910170008</v>
+      </c>
+      <c r="M72">
+        <v>33.5</v>
+      </c>
+      <c r="N72">
+        <v>3.9515659845877303E-19</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>1.4499140925620439E-2</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>-5.7446451213411899E-18</v>
+      </c>
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>0.64625960803040983</v>
+      </c>
+      <c r="M73">
+        <v>34</v>
+      </c>
+      <c r="N73">
+        <v>1.1172350862731787E-18</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>34.5</v>
+      </c>
+      <c r="E74">
+        <v>1.2311686830511988E-2</v>
+      </c>
+      <c r="G74">
+        <v>34.5</v>
+      </c>
+      <c r="H74">
+        <v>-4.6362081412415091E-18</v>
+      </c>
+      <c r="J74">
+        <v>34.5</v>
+      </c>
+      <c r="K74">
+        <v>0.58043240073859914</v>
+      </c>
+      <c r="M74">
+        <v>34.5</v>
+      </c>
+      <c r="N74">
+        <v>1.7273226289761078E-18</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>1.0454266774610936E-2</v>
+      </c>
+      <c r="G75">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>-3.5277711611418591E-18</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="K75">
+        <v>0.52099895015441944</v>
+      </c>
+      <c r="M75">
+        <v>35</v>
+      </c>
+      <c r="N75">
+        <v>2.3374101716790501E-18</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>35.5</v>
+      </c>
+      <c r="E76">
+        <v>8.8770847309371341E-3</v>
+      </c>
+      <c r="G76">
+        <v>35.5</v>
+      </c>
+      <c r="H76">
+        <v>-2.4193341810422241E-18</v>
+      </c>
+      <c r="J76">
+        <v>35.5</v>
+      </c>
+      <c r="K76">
+        <v>0.46799288697684199</v>
+      </c>
+      <c r="M76">
+        <v>35.5</v>
+      </c>
+      <c r="N76">
+        <v>2.9474977143819628E-18</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>7.5378581385883853E-3</v>
+      </c>
+      <c r="G77">
+        <v>36</v>
+      </c>
+      <c r="H77">
+        <v>-1.3108972009425845E-18</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>0.42001911146583193</v>
+      </c>
+      <c r="M77">
+        <v>36</v>
+      </c>
+      <c r="N77">
+        <v>3.5575852570849348E-18</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>36.5</v>
+      </c>
+      <c r="E78">
+        <v>6.4006842251177328E-3</v>
+      </c>
+      <c r="G78">
+        <v>36.5</v>
+      </c>
+      <c r="H78">
+        <v>-2.0246022084294187E-19</v>
+      </c>
+      <c r="J78">
+        <v>36.5</v>
+      </c>
+      <c r="K78">
+        <v>0.37734030882215314</v>
+      </c>
+      <c r="M78">
+        <v>36.5</v>
+      </c>
+      <c r="N78">
+        <v>4.1676727997878471E-18</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>5.4350773843012791E-3</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79">
+        <v>9.0597675925669938E-19</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>0.33861314543198229</v>
+      </c>
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79">
+        <v>4.7777603424907594E-18</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>37.5</v>
+      </c>
+      <c r="E80">
+        <v>4.6151517999718818E-3</v>
+      </c>
+      <c r="G80">
+        <v>37.5</v>
+      </c>
+      <c r="H80">
+        <v>1.4015365356654597E-18</v>
+      </c>
+      <c r="J80">
+        <v>37.5</v>
+      </c>
+      <c r="K80">
+        <v>0.30421037794813688</v>
+      </c>
+      <c r="M80">
+        <v>37.5</v>
+      </c>
+      <c r="N80">
+        <v>5.3878478851937017E-18</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>3.9189274006702695E-3</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81">
+        <v>1.505459616572661E-18</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>0.27298662893002845</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>5.0750287806663019E-18</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>38.5</v>
+      </c>
+      <c r="E82">
+        <v>3.3277405364287417E-3</v>
+      </c>
+      <c r="G82">
+        <v>38.5</v>
+      </c>
+      <c r="H82">
+        <v>1.6093826974798669E-18</v>
+      </c>
+      <c r="J82">
+        <v>38.5</v>
+      </c>
+      <c r="K82">
+        <v>0.24524124188733273</v>
+      </c>
+      <c r="M82">
+        <v>38.5</v>
+      </c>
+      <c r="N82">
+        <v>4.7218697248437327E-18</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>2.8257435766929273E-3</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>1.7133057783870879E-18</v>
+      </c>
+      <c r="J83">
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <v>0.22008071657731548</v>
+      </c>
+      <c r="M83">
+        <v>39</v>
+      </c>
+      <c r="N83">
+        <v>4.3687106690211781E-18</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>39.5</v>
+      </c>
+      <c r="E84">
+        <v>2.3994800124659561E-3</v>
+      </c>
+      <c r="G84">
+        <v>39.5</v>
+      </c>
+      <c r="H84">
+        <v>1.8172288592942788E-18</v>
+      </c>
+      <c r="J84">
+        <v>39.5</v>
+      </c>
+      <c r="K84">
+        <v>0.19770290564985338</v>
+      </c>
+      <c r="M84">
+        <v>39.5</v>
+      </c>
+      <c r="N84">
+        <v>4.0155516131986235E-18</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>2.0375236701357679E-3</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>1.9211519402014997E-18</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>0.17742953833521785</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85">
+        <v>3.6623925573760689E-18</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N95" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
